--- a/ACCManual.xlsx
+++ b/ACCManual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUHANA SUNAIJ\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34200066-8336-4B67-AECC-3A0634259EBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{470D8712-04CB-4956-B52B-4AA82094798D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="93">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -673,7 +673,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1137,7 +1137,10 @@
         <v>63</v>
       </c>
       <c r="I13" t="s">
-        <v>19</v>
+        <v>91</v>
+      </c>
+      <c r="J13" t="s">
+        <v>92</v>
       </c>
       <c r="K13" t="s">
         <v>20</v>
@@ -1169,7 +1172,10 @@
         <v>18</v>
       </c>
       <c r="I14" t="s">
-        <v>19</v>
+        <v>91</v>
+      </c>
+      <c r="J14" t="s">
+        <v>92</v>
       </c>
       <c r="K14" t="s">
         <v>20</v>
@@ -1265,7 +1271,10 @@
         <v>30</v>
       </c>
       <c r="I17" t="s">
-        <v>19</v>
+        <v>91</v>
+      </c>
+      <c r="J17" t="s">
+        <v>92</v>
       </c>
       <c r="K17" t="s">
         <v>20</v>
@@ -1297,7 +1306,10 @@
         <v>30</v>
       </c>
       <c r="I18" t="s">
-        <v>19</v>
+        <v>91</v>
+      </c>
+      <c r="J18" t="s">
+        <v>92</v>
       </c>
       <c r="K18" t="s">
         <v>20</v>
@@ -1329,7 +1341,10 @@
         <v>35</v>
       </c>
       <c r="I19" t="s">
-        <v>19</v>
+        <v>91</v>
+      </c>
+      <c r="J19" t="s">
+        <v>92</v>
       </c>
       <c r="K19" t="s">
         <v>20</v>
@@ -1361,7 +1376,10 @@
         <v>25</v>
       </c>
       <c r="I20" t="s">
-        <v>19</v>
+        <v>91</v>
+      </c>
+      <c r="J20" t="s">
+        <v>92</v>
       </c>
       <c r="K20" t="s">
         <v>20</v>
@@ -1393,7 +1411,10 @@
         <v>25</v>
       </c>
       <c r="I21" t="s">
-        <v>19</v>
+        <v>91</v>
+      </c>
+      <c r="J21" t="s">
+        <v>92</v>
       </c>
       <c r="K21" t="s">
         <v>20</v>
@@ -1425,7 +1446,10 @@
         <v>30</v>
       </c>
       <c r="I22" t="s">
-        <v>19</v>
+        <v>91</v>
+      </c>
+      <c r="J22" t="s">
+        <v>92</v>
       </c>
       <c r="K22" t="s">
         <v>20</v>

--- a/ACCManual.xlsx
+++ b/ACCManual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUHANA SUNAIJ\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{470D8712-04CB-4956-B52B-4AA82094798D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94627C1F-1428-4A0D-AAFF-5AD512FB1D6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="93">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -672,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1137,10 +1137,7 @@
         <v>63</v>
       </c>
       <c r="I13" t="s">
-        <v>91</v>
-      </c>
-      <c r="J13" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="K13" t="s">
         <v>20</v>
@@ -1172,10 +1169,7 @@
         <v>18</v>
       </c>
       <c r="I14" t="s">
-        <v>91</v>
-      </c>
-      <c r="J14" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="K14" t="s">
         <v>20</v>
@@ -1271,10 +1265,7 @@
         <v>30</v>
       </c>
       <c r="I17" t="s">
-        <v>91</v>
-      </c>
-      <c r="J17" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="K17" t="s">
         <v>20</v>
@@ -1306,10 +1297,7 @@
         <v>30</v>
       </c>
       <c r="I18" t="s">
-        <v>91</v>
-      </c>
-      <c r="J18" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="K18" t="s">
         <v>20</v>
@@ -1341,10 +1329,7 @@
         <v>35</v>
       </c>
       <c r="I19" t="s">
-        <v>91</v>
-      </c>
-      <c r="J19" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="K19" t="s">
         <v>20</v>
@@ -1376,10 +1361,7 @@
         <v>25</v>
       </c>
       <c r="I20" t="s">
-        <v>91</v>
-      </c>
-      <c r="J20" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="K20" t="s">
         <v>20</v>
@@ -1411,10 +1393,7 @@
         <v>25</v>
       </c>
       <c r="I21" t="s">
-        <v>91</v>
-      </c>
-      <c r="J21" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="K21" t="s">
         <v>20</v>
@@ -1446,10 +1425,7 @@
         <v>30</v>
       </c>
       <c r="I22" t="s">
-        <v>91</v>
-      </c>
-      <c r="J22" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="K22" t="s">
         <v>20</v>

--- a/ACCManual.xlsx
+++ b/ACCManual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUHANA SUNAIJ\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A50BD27-A755-41A9-AF0C-A5C5D3D3B102}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80287CD-17D2-49F2-83A2-3C21DEA67103}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -820,7 +820,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H6" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="I23" sqref="I23:J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1634,7 +1634,10 @@
         <v>35</v>
       </c>
       <c r="I23" t="s">
-        <v>64</v>
+        <v>19</v>
+      </c>
+      <c r="J23" t="s">
+        <v>141</v>
       </c>
       <c r="K23" t="s">
         <v>20</v>
@@ -1666,10 +1669,7 @@
         <v>25</v>
       </c>
       <c r="I24" t="s">
-        <v>19</v>
-      </c>
-      <c r="J24" t="s">
-        <v>141</v>
+        <v>64</v>
       </c>
       <c r="K24" t="s">
         <v>20</v>

--- a/ACCManual.xlsx
+++ b/ACCManual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUHANA SUNAIJ\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80287CD-17D2-49F2-83A2-3C21DEA67103}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE9AF82-1822-419D-8F5B-7B411169A78B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -820,7 +820,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H6" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23:J23"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1669,7 +1669,10 @@
         <v>25</v>
       </c>
       <c r="I24" t="s">
-        <v>64</v>
+        <v>19</v>
+      </c>
+      <c r="J24" t="s">
+        <v>141</v>
       </c>
       <c r="K24" t="s">
         <v>20</v>
@@ -1701,10 +1704,7 @@
         <v>102</v>
       </c>
       <c r="I25" t="s">
-        <v>19</v>
-      </c>
-      <c r="J25" t="s">
-        <v>141</v>
+        <v>64</v>
       </c>
       <c r="K25" t="s">
         <v>20</v>

--- a/ACCManual.xlsx
+++ b/ACCManual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUHANA SUNAIJ\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE9AF82-1822-419D-8F5B-7B411169A78B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D99295D-BA86-4F71-BC93-3781C815191E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -820,7 +820,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H6" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="I25" activeCellId="1" sqref="I24:J24 I25:J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1704,7 +1704,10 @@
         <v>102</v>
       </c>
       <c r="I25" t="s">
-        <v>64</v>
+        <v>19</v>
+      </c>
+      <c r="J25" t="s">
+        <v>141</v>
       </c>
       <c r="K25" t="s">
         <v>20</v>
@@ -1736,10 +1739,7 @@
         <v>35</v>
       </c>
       <c r="I26" t="s">
-        <v>19</v>
-      </c>
-      <c r="J26" t="s">
-        <v>141</v>
+        <v>64</v>
       </c>
       <c r="K26" t="s">
         <v>20</v>

--- a/ACCManual.xlsx
+++ b/ACCManual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUHANA SUNAIJ\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D99295D-BA86-4F71-BC93-3781C815191E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24EBC9E8-9B90-43DE-8DE4-C6F151CC1D07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -820,7 +820,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H6" workbookViewId="0">
-      <selection activeCell="I25" activeCellId="1" sqref="I24:J24 I25:J25"/>
+      <selection activeCell="I26" sqref="I26:J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1739,7 +1739,10 @@
         <v>35</v>
       </c>
       <c r="I26" t="s">
-        <v>64</v>
+        <v>19</v>
+      </c>
+      <c r="J26" t="s">
+        <v>141</v>
       </c>
       <c r="K26" t="s">
         <v>20</v>
@@ -1771,10 +1774,7 @@
         <v>30</v>
       </c>
       <c r="I27" t="s">
-        <v>19</v>
-      </c>
-      <c r="J27" t="s">
-        <v>141</v>
+        <v>64</v>
       </c>
       <c r="K27" t="s">
         <v>20</v>

--- a/ACCManual.xlsx
+++ b/ACCManual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUHANA SUNAIJ\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24EBC9E8-9B90-43DE-8DE4-C6F151CC1D07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81AD4D95-7037-4207-B706-79432A877112}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -819,8 +819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H6" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26:J26"/>
+    <sheetView tabSelected="1" topLeftCell="H17" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27:J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1774,7 +1774,10 @@
         <v>30</v>
       </c>
       <c r="I27" t="s">
-        <v>64</v>
+        <v>19</v>
+      </c>
+      <c r="J27" t="s">
+        <v>141</v>
       </c>
       <c r="K27" t="s">
         <v>20</v>
@@ -1806,10 +1809,7 @@
         <v>113</v>
       </c>
       <c r="I28" t="s">
-        <v>19</v>
-      </c>
-      <c r="J28" t="s">
-        <v>141</v>
+        <v>64</v>
       </c>
       <c r="K28" t="s">
         <v>20</v>

--- a/ACCManual.xlsx
+++ b/ACCManual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUHANA SUNAIJ\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81AD4D95-7037-4207-B706-79432A877112}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78FE67A2-8AD6-474E-9D9C-D9DCE35FA5C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="142">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -819,8 +819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H17" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27:J27"/>
+    <sheetView tabSelected="1" topLeftCell="F17" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29:J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1841,10 +1841,7 @@
         <v>25</v>
       </c>
       <c r="I29" t="s">
-        <v>19</v>
-      </c>
-      <c r="J29" t="s">
-        <v>141</v>
+        <v>64</v>
       </c>
       <c r="K29" t="s">
         <v>20</v>

--- a/ACCManual.xlsx
+++ b/ACCManual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUHANA SUNAIJ\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78FE67A2-8AD6-474E-9D9C-D9DCE35FA5C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CBC3A7-7C6F-4182-912F-5FA98CF2CCE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="142">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -820,7 +820,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F17" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29:J29"/>
+      <selection activeCell="I32" sqref="I32:J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1809,7 +1809,10 @@
         <v>113</v>
       </c>
       <c r="I28" t="s">
-        <v>64</v>
+        <v>19</v>
+      </c>
+      <c r="J28" t="s">
+        <v>141</v>
       </c>
       <c r="K28" t="s">
         <v>20</v>
@@ -1841,7 +1844,10 @@
         <v>25</v>
       </c>
       <c r="I29" t="s">
-        <v>64</v>
+        <v>19</v>
+      </c>
+      <c r="J29" t="s">
+        <v>141</v>
       </c>
       <c r="K29" t="s">
         <v>20</v>
@@ -1873,10 +1879,7 @@
         <v>25</v>
       </c>
       <c r="I30" t="s">
-        <v>19</v>
-      </c>
-      <c r="J30" t="s">
-        <v>141</v>
+        <v>64</v>
       </c>
       <c r="K30" t="s">
         <v>20</v>
@@ -1908,10 +1911,7 @@
         <v>25</v>
       </c>
       <c r="I31" t="s">
-        <v>19</v>
-      </c>
-      <c r="J31" t="s">
-        <v>141</v>
+        <v>64</v>
       </c>
       <c r="K31" t="s">
         <v>20</v>
@@ -1943,10 +1943,7 @@
         <v>25</v>
       </c>
       <c r="I32" t="s">
-        <v>19</v>
-      </c>
-      <c r="J32" t="s">
-        <v>141</v>
+        <v>64</v>
       </c>
       <c r="K32" t="s">
         <v>20</v>

--- a/ACCManual.xlsx
+++ b/ACCManual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUHANA SUNAIJ\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CBC3A7-7C6F-4182-912F-5FA98CF2CCE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44597292-B54E-4A9C-8FDE-35FA1BBB8440}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="142">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -820,7 +820,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F17" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32:J32"/>
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1879,7 +1879,10 @@
         <v>25</v>
       </c>
       <c r="I30" t="s">
-        <v>64</v>
+        <v>19</v>
+      </c>
+      <c r="J30" t="s">
+        <v>141</v>
       </c>
       <c r="K30" t="s">
         <v>20</v>
@@ -1911,7 +1914,10 @@
         <v>25</v>
       </c>
       <c r="I31" t="s">
-        <v>64</v>
+        <v>19</v>
+      </c>
+      <c r="J31" t="s">
+        <v>141</v>
       </c>
       <c r="K31" t="s">
         <v>20</v>
@@ -1943,7 +1949,10 @@
         <v>25</v>
       </c>
       <c r="I32" t="s">
-        <v>64</v>
+        <v>19</v>
+      </c>
+      <c r="J32" t="s">
+        <v>141</v>
       </c>
       <c r="K32" t="s">
         <v>20</v>
@@ -2080,10 +2089,7 @@
         <v>30</v>
       </c>
       <c r="I36" t="s">
-        <v>19</v>
-      </c>
-      <c r="J36" t="s">
-        <v>141</v>
+        <v>64</v>
       </c>
       <c r="K36" t="s">
         <v>20</v>

--- a/ACCManual.xlsx
+++ b/ACCManual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUHANA SUNAIJ\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44597292-B54E-4A9C-8FDE-35FA1BBB8440}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A21D1E3-DA08-4370-B8E4-62351A60735B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="142">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -820,7 +820,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F17" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1949,10 +1949,7 @@
         <v>25</v>
       </c>
       <c r="I32" t="s">
-        <v>19</v>
-      </c>
-      <c r="J32" t="s">
-        <v>141</v>
+        <v>64</v>
       </c>
       <c r="K32" t="s">
         <v>20</v>
@@ -1984,10 +1981,7 @@
         <v>25</v>
       </c>
       <c r="I33" t="s">
-        <v>19</v>
-      </c>
-      <c r="J33" t="s">
-        <v>141</v>
+        <v>64</v>
       </c>
       <c r="K33" t="s">
         <v>20</v>
@@ -2019,10 +2013,7 @@
         <v>30</v>
       </c>
       <c r="I34" t="s">
-        <v>19</v>
-      </c>
-      <c r="J34" t="s">
-        <v>141</v>
+        <v>64</v>
       </c>
       <c r="K34" t="s">
         <v>20</v>
@@ -2054,10 +2045,7 @@
         <v>30</v>
       </c>
       <c r="I35" t="s">
-        <v>19</v>
-      </c>
-      <c r="J35" t="s">
-        <v>141</v>
+        <v>64</v>
       </c>
       <c r="K35" t="s">
         <v>20</v>

--- a/ACCManual.xlsx
+++ b/ACCManual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUHANA SUNAIJ\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A21D1E3-DA08-4370-B8E4-62351A60735B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B6BD1C-C565-41B2-9259-72969BF20901}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="142">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -819,8 +819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F17" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="F16" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1634,10 +1634,7 @@
         <v>35</v>
       </c>
       <c r="I23" t="s">
-        <v>19</v>
-      </c>
-      <c r="J23" t="s">
-        <v>141</v>
+        <v>64</v>
       </c>
       <c r="K23" t="s">
         <v>20</v>
@@ -1669,10 +1666,7 @@
         <v>25</v>
       </c>
       <c r="I24" t="s">
-        <v>19</v>
-      </c>
-      <c r="J24" t="s">
-        <v>141</v>
+        <v>64</v>
       </c>
       <c r="K24" t="s">
         <v>20</v>
@@ -1704,10 +1698,7 @@
         <v>102</v>
       </c>
       <c r="I25" t="s">
-        <v>19</v>
-      </c>
-      <c r="J25" t="s">
-        <v>141</v>
+        <v>64</v>
       </c>
       <c r="K25" t="s">
         <v>20</v>
@@ -1739,10 +1730,7 @@
         <v>35</v>
       </c>
       <c r="I26" t="s">
-        <v>19</v>
-      </c>
-      <c r="J26" t="s">
-        <v>141</v>
+        <v>64</v>
       </c>
       <c r="K26" t="s">
         <v>20</v>
@@ -1774,10 +1762,7 @@
         <v>30</v>
       </c>
       <c r="I27" t="s">
-        <v>19</v>
-      </c>
-      <c r="J27" t="s">
-        <v>141</v>
+        <v>64</v>
       </c>
       <c r="K27" t="s">
         <v>20</v>
@@ -1809,10 +1794,7 @@
         <v>113</v>
       </c>
       <c r="I28" t="s">
-        <v>19</v>
-      </c>
-      <c r="J28" t="s">
-        <v>141</v>
+        <v>64</v>
       </c>
       <c r="K28" t="s">
         <v>20</v>
@@ -1844,10 +1826,7 @@
         <v>25</v>
       </c>
       <c r="I29" t="s">
-        <v>19</v>
-      </c>
-      <c r="J29" t="s">
-        <v>141</v>
+        <v>64</v>
       </c>
       <c r="K29" t="s">
         <v>20</v>
@@ -1879,10 +1858,7 @@
         <v>25</v>
       </c>
       <c r="I30" t="s">
-        <v>19</v>
-      </c>
-      <c r="J30" t="s">
-        <v>141</v>
+        <v>64</v>
       </c>
       <c r="K30" t="s">
         <v>20</v>
@@ -1914,10 +1890,7 @@
         <v>25</v>
       </c>
       <c r="I31" t="s">
-        <v>19</v>
-      </c>
-      <c r="J31" t="s">
-        <v>141</v>
+        <v>64</v>
       </c>
       <c r="K31" t="s">
         <v>20</v>
